--- a/sofaplayer/Bundesliga/Borussia Dortmund_stats.xlsx
+++ b/sofaplayer/Bundesliga/Borussia Dortmund_stats.xlsx
@@ -1035,40 +1035,40 @@
         <v>328027</v>
       </c>
       <c r="E2" t="n">
-        <v>6.805</v>
+        <v>6.8761904761905</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="n">
-        <v>1568</v>
+        <v>1642</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K2" t="n">
-        <v>10.1227</v>
+        <v>10.8781</v>
       </c>
       <c r="L2" t="n">
-        <v>174.22222222222</v>
+        <v>149.27272727273</v>
       </c>
       <c r="M2" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P2" t="n">
-        <v>16.666666666667</v>
+        <v>19.298245614035</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -1080,13 +1080,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
@@ -1101,10 +1101,10 @@
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.64479997</v>
+        <v>2.67432787</v>
       </c>
       <c r="AB2" t="n">
-        <v>646</v>
+        <v>669</v>
       </c>
       <c r="AC2" t="n">
         <v>1</v>
@@ -1113,22 +1113,22 @@
         <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="AF2" t="n">
-        <v>75.189873417722</v>
+        <v>75.36585365853701</v>
       </c>
       <c r="AG2" t="n">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="AH2" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AI2" t="n">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="AJ2" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AK2" t="n">
         <v>6</v>
@@ -1152,7 +1152,7 @@
         <v>9</v>
       </c>
       <c r="AR2" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AS2" t="n">
         <v>4</v>
@@ -1173,31 +1173,31 @@
         <v>1</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
-        <v>52.631578947368</v>
+        <v>55</v>
       </c>
       <c r="BA2" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="BB2" t="n">
-        <v>48.815165876777</v>
+        <v>48.648648648649</v>
       </c>
       <c r="BC2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BD2" t="n">
-        <v>38.541666666667</v>
+        <v>38.775510204082</v>
       </c>
       <c r="BE2" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="BF2" t="n">
-        <v>57.391304347826</v>
+        <v>56.451612903226</v>
       </c>
       <c r="BG2" t="n">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="BH2" t="n">
         <v>31</v>
@@ -1227,22 +1227,22 @@
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>136.1</v>
+        <v>144.4</v>
       </c>
       <c r="BR2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BT2" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BW2" t="n">
         <v>3</v>
@@ -1254,13 +1254,13 @@
         <v>1</v>
       </c>
       <c r="BZ2" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="CA2" t="n">
         <v>8</v>
       </c>
       <c r="CB2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CC2" t="n">
         <v>6</v>
@@ -1311,16 +1311,16 @@
         <v>15</v>
       </c>
       <c r="CS2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CT2" t="n">
         <v>3</v>
       </c>
       <c r="CU2" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="CV2" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="CW2" t="n">
         <v>1</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="DG2" t="n">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>940054</v>
       </c>
       <c r="E3" t="n">
-        <v>6.94375</v>
+        <v>6.9058823529412</v>
       </c>
       <c r="F3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
         <v>12</v>
       </c>
       <c r="H3" t="n">
-        <v>906</v>
+        <v>922</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -1412,7 +1412,7 @@
         <v>3.4151</v>
       </c>
       <c r="L3" t="n">
-        <v>181.2</v>
+        <v>184.4</v>
       </c>
       <c r="M3" t="n">
         <v>22</v>
@@ -1457,10 +1457,10 @@
         <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.25558102</v>
+        <v>2.25898333</v>
       </c>
       <c r="AB3" t="n">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="AC3" t="n">
         <v>4</v>
@@ -1469,22 +1469,22 @@
         <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AF3" t="n">
-        <v>71.98275862069001</v>
+        <v>72.573839662447</v>
       </c>
       <c r="AG3" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AH3" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AI3" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AJ3" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AK3" t="n">
         <v>3</v>
@@ -1532,19 +1532,19 @@
         <v>22</v>
       </c>
       <c r="AZ3" t="n">
-        <v>40.740740740741</v>
+        <v>39.285714285714</v>
       </c>
       <c r="BA3" t="n">
         <v>55</v>
       </c>
       <c r="BB3" t="n">
-        <v>41.666666666667</v>
+        <v>41.044776119403</v>
       </c>
       <c r="BC3" t="n">
         <v>49</v>
       </c>
       <c r="BD3" t="n">
-        <v>41.525423728814</v>
+        <v>40.833333333333</v>
       </c>
       <c r="BE3" t="n">
         <v>6</v>
@@ -1553,7 +1553,7 @@
         <v>42.857142857143</v>
       </c>
       <c r="BG3" t="n">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="BH3" t="n">
         <v>16</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>111.1</v>
+        <v>117.4</v>
       </c>
       <c r="BR3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS3" t="n">
         <v>7</v>
@@ -1667,13 +1667,13 @@
         <v>11</v>
       </c>
       <c r="CS3" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="CT3" t="n">
         <v>7</v>
       </c>
       <c r="CU3" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="CV3" t="n">
         <v>8</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="DG3" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>954076</v>
       </c>
       <c r="E4" t="n">
-        <v>6.5153846153846</v>
+        <v>6.5142857142857</v>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>436</v>
+        <v>465</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1765,19 +1765,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6133999999999999</v>
+        <v>1.0063</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>5</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.33479628</v>
+        <v>1.35200318</v>
       </c>
       <c r="AB4" t="n">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="AC4" t="n">
         <v>3</v>
@@ -1825,22 +1825,22 @@
         <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AF4" t="n">
-        <v>75.862068965517</v>
+        <v>74.675324675325</v>
       </c>
       <c r="AG4" t="n">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AJ4" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>4</v>
       </c>
       <c r="AR4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AS4" t="n">
         <v>1</v>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV4" t="n">
         <v>0</v>
@@ -1885,43 +1885,43 @@
         <v>0</v>
       </c>
       <c r="AY4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ4" t="n">
         <v>50</v>
       </c>
       <c r="BA4" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BB4" t="n">
-        <v>33.846153846154</v>
+        <v>35.616438356164</v>
       </c>
       <c r="BC4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BD4" t="n">
-        <v>36.585365853659</v>
+        <v>37.5</v>
       </c>
       <c r="BE4" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>32</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>76</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI4" t="n">
         <v>7</v>
       </c>
-      <c r="BF4" t="n">
-        <v>29.166666666667</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>68</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>6</v>
-      </c>
       <c r="BJ4" t="n">
         <v>1</v>
       </c>
       <c r="BK4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL4" t="n">
         <v>0</v>
@@ -1939,16 +1939,16 @@
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>84.7</v>
+        <v>91.2</v>
       </c>
       <c r="BR4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BS4" t="n">
         <v>5</v>
       </c>
       <c r="BT4" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -1966,16 +1966,16 @@
         <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CA4" t="n">
         <v>1</v>
       </c>
       <c r="CB4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CC4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CD4" t="n">
         <v>3</v>
@@ -2023,13 +2023,13 @@
         <v>12</v>
       </c>
       <c r="CS4" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="CT4" t="n">
         <v>6</v>
       </c>
       <c r="CU4" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="CV4" t="n">
         <v>17</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DA4" t="n">
         <v>1</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="DG4" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2103,40 +2103,40 @@
         <v>980628</v>
       </c>
       <c r="E5" t="n">
-        <v>6.6789473684211</v>
+        <v>6.73</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>1075</v>
+        <v>1136</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
-        <v>4.3446</v>
+        <v>4.7021</v>
       </c>
       <c r="L5" t="n">
-        <v>179.16666666667</v>
+        <v>162.28571428571</v>
       </c>
       <c r="M5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O5" t="n">
         <v>5</v>
       </c>
       <c r="P5" t="n">
-        <v>22.222222222222</v>
+        <v>24.137931034483</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -2148,13 +2148,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
         <v>2</v>
@@ -2169,34 +2169,34 @@
         <v>3</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.42493174</v>
+        <v>2.59350574</v>
       </c>
       <c r="AB5" t="n">
-        <v>550</v>
+        <v>581</v>
       </c>
       <c r="AC5" t="n">
         <v>4</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="AF5" t="n">
-        <v>72.274143302181</v>
+        <v>71.130952380952</v>
       </c>
       <c r="AG5" t="n">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="AH5" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AI5" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AJ5" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AK5" t="n">
         <v>5</v>
@@ -2208,19 +2208,19 @@
         <v>1</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.3333333333333</v>
+        <v>7.6923076923077</v>
       </c>
       <c r="AO5" t="n">
         <v>6</v>
       </c>
       <c r="AP5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR5" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AS5" t="n">
         <v>9</v>
@@ -2244,34 +2244,34 @@
         <v>11</v>
       </c>
       <c r="AZ5" t="n">
-        <v>39.285714285714</v>
+        <v>36.666666666667</v>
       </c>
       <c r="BA5" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="BB5" t="n">
-        <v>37.121212121212</v>
+        <v>38.848920863309</v>
       </c>
       <c r="BC5" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="BD5" t="n">
-        <v>35.869565217391</v>
+        <v>37.113402061856</v>
       </c>
       <c r="BE5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BF5" t="n">
-        <v>40</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BG5" t="n">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="BH5" t="n">
         <v>12</v>
       </c>
       <c r="BI5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BJ5" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>126.9</v>
+        <v>134.6</v>
       </c>
       <c r="BR5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BT5" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -2322,10 +2322,10 @@
         <v>0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CA5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CB5" t="n">
         <v>21</v>
@@ -2376,16 +2376,16 @@
         <v>0</v>
       </c>
       <c r="CR5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CS5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="CT5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CU5" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="CV5" t="n">
         <v>24</v>
@@ -2406,7 +2406,7 @@
         <v>8</v>
       </c>
       <c r="DB5" t="n">
-        <v>72.727272727273</v>
+        <v>61.538461538462</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="DG5" t="n">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>1134083</v>
       </c>
       <c r="E6" t="n">
-        <v>6.6444444444444</v>
+        <v>6.6631578947368</v>
       </c>
       <c r="F6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
-        <v>840</v>
+        <v>930</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2477,13 +2477,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6441</v>
+        <v>0.6921</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N6" t="n">
         <v>3</v>
@@ -2525,10 +2525,10 @@
         <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.66294239</v>
+        <v>0.71243369</v>
       </c>
       <c r="AB6" t="n">
-        <v>666</v>
+        <v>736</v>
       </c>
       <c r="AC6" t="n">
         <v>1</v>
@@ -2537,28 +2537,28 @@
         <v>4</v>
       </c>
       <c r="AE6" t="n">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="AF6" t="n">
-        <v>86.05577689243</v>
+        <v>85.816876122083</v>
       </c>
       <c r="AG6" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="AH6" t="n">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="AI6" t="n">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="AJ6" t="n">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>69.69696969697</v>
+        <v>65.789473684211</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -2567,25 +2567,25 @@
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR6" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="AS6" t="n">
         <v>5</v>
       </c>
       <c r="AT6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
@@ -2600,19 +2600,19 @@
         <v>6</v>
       </c>
       <c r="AZ6" t="n">
-        <v>42.857142857143</v>
+        <v>40</v>
       </c>
       <c r="BA6" t="n">
         <v>52</v>
       </c>
       <c r="BB6" t="n">
-        <v>54.166666666667</v>
+        <v>53.061224489796</v>
       </c>
       <c r="BC6" t="n">
         <v>41</v>
       </c>
       <c r="BD6" t="n">
-        <v>54.666666666667</v>
+        <v>53.246753246753</v>
       </c>
       <c r="BE6" t="n">
         <v>11</v>
@@ -2621,10 +2621,10 @@
         <v>52.380952380952</v>
       </c>
       <c r="BG6" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="BH6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI6" t="n">
         <v>14</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="BN6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO6" t="n">
         <v>11</v>
@@ -2651,16 +2651,16 @@
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>119.6</v>
+        <v>126.6</v>
       </c>
       <c r="BR6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS6" t="n">
         <v>1</v>
       </c>
       <c r="BT6" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="BU6" t="n">
         <v>1</v>
@@ -2681,16 +2681,16 @@
         <v>3</v>
       </c>
       <c r="CA6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB6" t="n">
         <v>14</v>
       </c>
       <c r="CC6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CD6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CE6" t="n">
         <v>0</v>
@@ -2735,13 +2735,13 @@
         <v>4</v>
       </c>
       <c r="CS6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CT6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CU6" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="CV6" t="n">
         <v>10</v>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="DA6" t="n">
         <v>12</v>
@@ -2774,16 +2774,16 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="DG6" t="n">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
       </c>
       <c r="DI6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DJ6" t="n">
         <v>2164788</v>
@@ -2815,16 +2815,16 @@
         <v>994556</v>
       </c>
       <c r="E7" t="n">
-        <v>6.7375</v>
+        <v>6.7176470588235</v>
       </c>
       <c r="F7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" t="n">
         <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>620</v>
+        <v>649</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>1.7066</v>
       </c>
       <c r="L7" t="n">
-        <v>310</v>
+        <v>324.5</v>
       </c>
       <c r="M7" t="n">
         <v>14</v>
@@ -2881,34 +2881,34 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.58169216</v>
+        <v>1.59780976</v>
       </c>
       <c r="AB7" t="n">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="AF7" t="n">
-        <v>85.71428571428601</v>
+        <v>85.401459854015</v>
       </c>
       <c r="AG7" t="n">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="AH7" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AI7" t="n">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="AJ7" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AK7" t="n">
         <v>2</v>
@@ -2932,7 +2932,7 @@
         <v>3</v>
       </c>
       <c r="AR7" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AS7" t="n">
         <v>4</v>
@@ -2956,31 +2956,31 @@
         <v>19</v>
       </c>
       <c r="AZ7" t="n">
-        <v>50</v>
+        <v>48.717948717949</v>
       </c>
       <c r="BA7" t="n">
         <v>49</v>
       </c>
       <c r="BB7" t="n">
-        <v>49</v>
+        <v>47.572815533981</v>
       </c>
       <c r="BC7" t="n">
         <v>44</v>
       </c>
       <c r="BD7" t="n">
-        <v>51.764705882353</v>
+        <v>50.574712643678</v>
       </c>
       <c r="BE7" t="n">
         <v>5</v>
       </c>
       <c r="BF7" t="n">
-        <v>33.333333333333</v>
+        <v>31.25</v>
       </c>
       <c r="BG7" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="BH7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI7" t="n">
         <v>10</v>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL7" t="n">
         <v>0</v>
@@ -3007,16 +3007,16 @@
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>107.8</v>
+        <v>114.2</v>
       </c>
       <c r="BR7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS7" t="n">
         <v>2</v>
       </c>
       <c r="BT7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>12</v>
       </c>
       <c r="CC7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CE7" t="n">
         <v>0</v>
@@ -3088,19 +3088,19 @@
         <v>0</v>
       </c>
       <c r="CR7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CS7" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="CT7" t="n">
         <v>0</v>
       </c>
       <c r="CU7" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="CV7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CW7" t="n">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="DG7" t="n">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3171,16 +3171,16 @@
         <v>226978</v>
       </c>
       <c r="E8" t="n">
-        <v>7.09375</v>
+        <v>7.0764705882353</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>1034</v>
+        <v>1095</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -3189,22 +3189,22 @@
         <v>6</v>
       </c>
       <c r="K8" t="n">
-        <v>4.378</v>
+        <v>4.5521</v>
       </c>
       <c r="L8" t="n">
-        <v>172.33333333333</v>
+        <v>182.5</v>
       </c>
       <c r="M8" t="n">
+        <v>25</v>
+      </c>
+      <c r="N8" t="n">
+        <v>14</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
         <v>24</v>
-      </c>
-      <c r="N8" t="n">
-        <v>13</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>25</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -3237,46 +3237,46 @@
         <v>2</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.84320236</v>
+        <v>2.87308706</v>
       </c>
       <c r="AB8" t="n">
-        <v>626</v>
+        <v>662</v>
       </c>
       <c r="AC8" t="n">
         <v>4</v>
       </c>
       <c r="AD8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="AF8" t="n">
-        <v>80.174291938998</v>
+        <v>79.303278688525</v>
       </c>
       <c r="AG8" t="n">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="AH8" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AI8" t="n">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="AJ8" t="n">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AK8" t="n">
         <v>12</v>
       </c>
       <c r="AL8" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM8" t="n">
         <v>3</v>
       </c>
       <c r="AN8" t="n">
-        <v>18.75</v>
+        <v>17.647058823529</v>
       </c>
       <c r="AO8" t="n">
         <v>3</v>
@@ -3288,7 +3288,7 @@
         <v>10</v>
       </c>
       <c r="AR8" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AS8" t="n">
         <v>4</v>
@@ -3309,31 +3309,31 @@
         <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ8" t="n">
-        <v>52.173913043478</v>
+        <v>52</v>
       </c>
       <c r="BA8" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="BB8" t="n">
-        <v>48.148148148148</v>
+        <v>48.809523809524</v>
       </c>
       <c r="BC8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD8" t="n">
-        <v>47.368421052632</v>
+        <v>47.457627118644</v>
       </c>
       <c r="BE8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BF8" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="BG8" t="n">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="BH8" t="n">
         <v>4</v>
@@ -3363,16 +3363,16 @@
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>113.5</v>
+        <v>120.3</v>
       </c>
       <c r="BR8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS8" t="n">
         <v>8</v>
       </c>
       <c r="BT8" t="n">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>2</v>
       </c>
       <c r="BZ8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CA8" t="n">
         <v>6</v>
@@ -3399,10 +3399,10 @@
         <v>11</v>
       </c>
       <c r="CC8" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="CD8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CE8" t="n">
         <v>0</v>
@@ -3444,16 +3444,16 @@
         <v>0</v>
       </c>
       <c r="CR8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CS8" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CT8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CU8" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="CV8" t="n">
         <v>12</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="DA8" t="n">
         <v>6</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="DG8" t="n">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3527,16 +3527,16 @@
         <v>133908</v>
       </c>
       <c r="E9" t="n">
-        <v>6.8846153846154</v>
+        <v>6.85</v>
       </c>
       <c r="F9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" t="n">
         <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>923</v>
+        <v>939</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0.8378</v>
       </c>
       <c r="L9" t="n">
-        <v>923</v>
+        <v>939</v>
       </c>
       <c r="M9" t="n">
         <v>13</v>
@@ -3593,10 +3593,10 @@
         <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.04826264</v>
+        <v>1.04918964</v>
       </c>
       <c r="AB9" t="n">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="AC9" t="n">
         <v>2</v>
@@ -3605,19 +3605,19 @@
         <v>8</v>
       </c>
       <c r="AE9" t="n">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="AF9" t="n">
-        <v>83.291770573566</v>
+        <v>83.614457831325</v>
       </c>
       <c r="AG9" t="n">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="AH9" t="n">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AI9" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AJ9" t="n">
         <v>113</v>
@@ -3632,10 +3632,10 @@
         <v>7</v>
       </c>
       <c r="AN9" t="n">
-        <v>43.75</v>
+        <v>41.176470588235</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
         <v>12</v>
@@ -3674,7 +3674,7 @@
         <v>26</v>
       </c>
       <c r="BB9" t="n">
-        <v>48.148148148148</v>
+        <v>46.428571428571</v>
       </c>
       <c r="BC9" t="n">
         <v>19</v>
@@ -3686,10 +3686,10 @@
         <v>7</v>
       </c>
       <c r="BF9" t="n">
-        <v>50</v>
+        <v>43.75</v>
       </c>
       <c r="BG9" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="BH9" t="n">
         <v>10</v>
@@ -3719,16 +3719,16 @@
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>89.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="BR9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BS9" t="n">
         <v>2</v>
       </c>
       <c r="BT9" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3806,13 +3806,13 @@
         <v>2</v>
       </c>
       <c r="CT9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CU9" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="CV9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CW9" t="n">
         <v>0</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="DG9" t="n">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3883,16 +3883,16 @@
         <v>907463</v>
       </c>
       <c r="E10" t="n">
-        <v>7.0142857142857</v>
+        <v>7.0181818181818</v>
       </c>
       <c r="F10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" t="n">
-        <v>1600</v>
+        <v>1674</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
@@ -3901,22 +3901,22 @@
         <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>1.448</v>
+        <v>1.6711</v>
       </c>
       <c r="L10" t="n">
-        <v>800</v>
+        <v>837</v>
       </c>
       <c r="M10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>8.695652173913</v>
+        <v>8</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -3949,40 +3949,40 @@
         <v>3</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.50985511</v>
+        <v>3.53385661</v>
       </c>
       <c r="AB10" t="n">
-        <v>1043</v>
+        <v>1086</v>
       </c>
       <c r="AC10" t="n">
         <v>2</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
-        <v>677</v>
+        <v>706</v>
       </c>
       <c r="AF10" t="n">
-        <v>86.462324393359</v>
+        <v>86.519607843137</v>
       </c>
       <c r="AG10" t="n">
-        <v>783</v>
+        <v>816</v>
       </c>
       <c r="AH10" t="n">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="AI10" t="n">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="AJ10" t="n">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AL10" t="n">
-        <v>56.862745098039</v>
+        <v>58.490566037736</v>
       </c>
       <c r="AM10" t="n">
         <v>1</v>
@@ -3997,19 +3997,19 @@
         <v>28</v>
       </c>
       <c r="AQ10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR10" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AS10" t="n">
         <v>9</v>
       </c>
       <c r="AT10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV10" t="n">
         <v>1</v>
@@ -4021,37 +4021,37 @@
         <v>0</v>
       </c>
       <c r="AY10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AZ10" t="n">
-        <v>58.139534883721</v>
+        <v>58.695652173913</v>
       </c>
       <c r="BA10" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="BB10" t="n">
-        <v>55.921052631579</v>
+        <v>57.232704402516</v>
       </c>
       <c r="BC10" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="BD10" t="n">
-        <v>56.302521008403</v>
+        <v>56.910569105691</v>
       </c>
       <c r="BE10" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BF10" t="n">
-        <v>54.545454545455</v>
+        <v>58.333333333333</v>
       </c>
       <c r="BG10" t="n">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="BH10" t="n">
         <v>19</v>
       </c>
       <c r="BI10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BJ10" t="n">
         <v>1</v>
@@ -4075,16 +4075,16 @@
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>147.3</v>
+        <v>154.4</v>
       </c>
       <c r="BR10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS10" t="n">
         <v>5</v>
       </c>
       <c r="BT10" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4102,19 +4102,19 @@
         <v>1</v>
       </c>
       <c r="BZ10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CA10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CB10" t="n">
         <v>6</v>
       </c>
       <c r="CC10" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CD10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CE10" t="n">
         <v>0</v>
@@ -4156,16 +4156,16 @@
         <v>0</v>
       </c>
       <c r="CR10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CS10" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="CT10" t="n">
         <v>5</v>
       </c>
       <c r="CU10" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CV10" t="n">
         <v>15</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="DA10" t="n">
         <v>16</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="DG10" t="n">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4239,16 +4239,16 @@
         <v>1021272</v>
       </c>
       <c r="E11" t="n">
-        <v>6.8</v>
+        <v>6.7954545454545</v>
       </c>
       <c r="F11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H11" t="n">
-        <v>1605</v>
+        <v>1695</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>0.907</v>
       </c>
       <c r="L11" t="n">
-        <v>1605</v>
+        <v>1695</v>
       </c>
       <c r="M11" t="n">
         <v>6</v>
@@ -4305,49 +4305,49 @@
         <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>3.76767491</v>
+        <v>3.90099391</v>
       </c>
       <c r="AB11" t="n">
-        <v>974</v>
+        <v>1032</v>
       </c>
       <c r="AC11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE11" t="n">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="AF11" t="n">
-        <v>84.822934232715</v>
+        <v>84.26073131955501</v>
       </c>
       <c r="AG11" t="n">
-        <v>593</v>
+        <v>629</v>
       </c>
       <c r="AH11" t="n">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="AI11" t="n">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="AJ11" t="n">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AK11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL11" t="n">
-        <v>31.818181818182</v>
+        <v>30.769230769231</v>
       </c>
       <c r="AM11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN11" t="n">
-        <v>26.744186046512</v>
+        <v>26.373626373626</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
@@ -4356,13 +4356,13 @@
         <v>7</v>
       </c>
       <c r="AR11" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AS11" t="n">
         <v>8</v>
       </c>
       <c r="AT11" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AU11" t="n">
         <v>1</v>
@@ -4377,31 +4377,31 @@
         <v>0</v>
       </c>
       <c r="AY11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ11" t="n">
-        <v>52.631578947368</v>
+        <v>55</v>
       </c>
       <c r="BA11" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BB11" t="n">
         <v>50</v>
       </c>
       <c r="BC11" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BD11" t="n">
-        <v>51.063829787234</v>
+        <v>51.578947368421</v>
       </c>
       <c r="BE11" t="n">
         <v>16</v>
       </c>
       <c r="BF11" t="n">
-        <v>47.058823529412</v>
+        <v>45.714285714286</v>
       </c>
       <c r="BG11" t="n">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="BH11" t="n">
         <v>22</v>
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="BN11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BO11" t="n">
         <v>17</v>
@@ -4431,16 +4431,16 @@
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>142.8</v>
+        <v>149.5</v>
       </c>
       <c r="BR11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS11" t="n">
         <v>2</v>
       </c>
       <c r="BT11" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4512,20 +4512,20 @@
         <v>0</v>
       </c>
       <c r="CR11" t="n">
+        <v>22</v>
+      </c>
+      <c r="CS11" t="n">
         <v>20</v>
       </c>
-      <c r="CS11" t="n">
+      <c r="CT11" t="n">
+        <v>91</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>65</v>
+      </c>
+      <c r="CV11" t="n">
         <v>19</v>
       </c>
-      <c r="CT11" t="n">
-        <v>86</v>
-      </c>
-      <c r="CU11" t="n">
-        <v>64</v>
-      </c>
-      <c r="CV11" t="n">
-        <v>18</v>
-      </c>
       <c r="CW11" t="n">
         <v>0</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="DA11" t="n">
         <v>16</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="DG11" t="n">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4951,40 +4951,40 @@
         <v>577726</v>
       </c>
       <c r="E13" t="n">
-        <v>7.5</v>
+        <v>7.5272727272727</v>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
-        <v>858</v>
+        <v>948</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4269</v>
+        <v>0.7581</v>
       </c>
       <c r="L13" t="n">
-        <v>858</v>
+        <v>474</v>
       </c>
       <c r="M13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>14.285714285714</v>
+        <v>25</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -4996,13 +4996,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.4477715</v>
+        <v>1.45770234</v>
       </c>
       <c r="AB13" t="n">
-        <v>874</v>
+        <v>965</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -5029,28 +5029,28 @@
         <v>5</v>
       </c>
       <c r="AE13" t="n">
-        <v>624</v>
+        <v>692</v>
       </c>
       <c r="AF13" t="n">
-        <v>89.142857142857</v>
+        <v>89.060489060489</v>
       </c>
       <c r="AG13" t="n">
-        <v>700</v>
+        <v>777</v>
       </c>
       <c r="AH13" t="n">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="AI13" t="n">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="AJ13" t="n">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="AK13" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
-        <v>46.969696969697</v>
+        <v>44.736842105263</v>
       </c>
       <c r="AM13" t="n">
         <v>2</v>
@@ -5059,7 +5059,7 @@
         <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
         <v>16</v>
@@ -5068,13 +5068,13 @@
         <v>2</v>
       </c>
       <c r="AR13" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AS13" t="n">
         <v>3</v>
       </c>
       <c r="AT13" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AU13" t="n">
         <v>1</v>
@@ -5095,28 +5095,28 @@
         <v>50</v>
       </c>
       <c r="BA13" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="BB13" t="n">
-        <v>56.470588235294</v>
+        <v>53.191489361702</v>
       </c>
       <c r="BC13" t="n">
         <v>25</v>
       </c>
       <c r="BD13" t="n">
-        <v>51.020408163265</v>
+        <v>48.076923076923</v>
       </c>
       <c r="BE13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BF13" t="n">
-        <v>63.888888888889</v>
+        <v>59.52380952381</v>
       </c>
       <c r="BG13" t="n">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="BH13" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BI13" t="n">
         <v>7</v>
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="BN13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BO13" t="n">
         <v>6</v>
@@ -5143,16 +5143,16 @@
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>75</v>
+        <v>82.8</v>
       </c>
       <c r="BR13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BS13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT13" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5170,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="BZ13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CA13" t="n">
         <v>3</v>
@@ -5179,10 +5179,10 @@
         <v>2</v>
       </c>
       <c r="CC13" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="CD13" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
@@ -5233,10 +5233,10 @@
         <v>8</v>
       </c>
       <c r="CU13" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="CV13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="CW13" t="n">
         <v>0</v>
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="DA13" t="n">
         <v>8</v>
@@ -5266,13 +5266,13 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="DG13" t="n">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="DH13" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="DI13" t="n">
         <v>5</v>
@@ -6375,16 +6375,16 @@
         <v>168937</v>
       </c>
       <c r="E17" t="n">
-        <v>7.0166666666667</v>
+        <v>6.9857142857143</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -6393,13 +6393,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0135</v>
+        <v>0.0337</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
         <v>1</v>
@@ -6441,10 +6441,10 @@
         <v>1</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.19474409</v>
+        <v>0.2009501</v>
       </c>
       <c r="AB17" t="n">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="AC17" t="n">
         <v>1</v>
@@ -6453,22 +6453,22 @@
         <v>2</v>
       </c>
       <c r="AE17" t="n">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="AF17" t="n">
-        <v>94.237288135593</v>
+        <v>94.49541284403701</v>
       </c>
       <c r="AG17" t="n">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="AH17" t="n">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="AI17" t="n">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="AJ17" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AK17" t="n">
         <v>16</v>
@@ -6492,13 +6492,13 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AS17" t="n">
         <v>3</v>
       </c>
       <c r="AT17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>66.666666666667</v>
       </c>
       <c r="BG17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BH17" t="n">
         <v>7</v>
@@ -6549,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="BK17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL17" t="n">
         <v>0</v>
@@ -6567,22 +6567,22 @@
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>42.1</v>
+        <v>48.9</v>
       </c>
       <c r="BR17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BS17" t="n">
         <v>1</v>
       </c>
       <c r="BT17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
       </c>
       <c r="BV17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW17" t="n">
         <v>0</v>
@@ -6597,16 +6597,16 @@
         <v>0</v>
       </c>
       <c r="CA17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CB17" t="n">
         <v>1</v>
       </c>
       <c r="CC17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CD17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
@@ -6690,10 +6690,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="DG17" t="n">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
@@ -6731,16 +6731,16 @@
         <v>800951</v>
       </c>
       <c r="E18" t="n">
-        <v>6.8666666666667</v>
+        <v>7.0315789473684</v>
       </c>
       <c r="F18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
-        <v>1244</v>
+        <v>1334</v>
       </c>
       <c r="I18" t="n">
         <v>2</v>
@@ -6794,67 +6794,67 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AA18" t="n">
-        <v>3.80748594</v>
+        <v>5.00468594</v>
       </c>
       <c r="AB18" t="n">
-        <v>942</v>
+        <v>1016</v>
       </c>
       <c r="AC18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>467</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>83.392857142857</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>560</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>154</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>313</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>191</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>51.351351351351</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>33</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>24.626865671642</v>
+      </c>
+      <c r="AO18" t="n">
         <v>10</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AP18" t="n">
         <v>27</v>
       </c>
-      <c r="AE18" t="n">
-        <v>440</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>84.130019120459</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>523</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>145</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>295</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>183</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>51.428571428571</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>22.689075630252</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>25</v>
-      </c>
       <c r="AQ18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR18" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AS18" t="n">
         <v>15</v>
       </c>
       <c r="AT18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU18" t="n">
         <v>6</v>
@@ -6869,37 +6869,37 @@
         <v>0</v>
       </c>
       <c r="AY18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28.205128205128</v>
+        <v>30.232558139535</v>
       </c>
       <c r="BA18" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="BB18" t="n">
-        <v>40.714285714286</v>
+        <v>41.059602649007</v>
       </c>
       <c r="BC18" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="BD18" t="n">
-        <v>39.837398373984</v>
+        <v>40.601503759398</v>
       </c>
       <c r="BE18" t="n">
         <v>8</v>
       </c>
       <c r="BF18" t="n">
-        <v>47.058823529412</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BG18" t="n">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="BH18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BI18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BJ18" t="n">
         <v>2</v>
@@ -6914,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="BN18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO18" t="n">
         <v>12</v>
@@ -6923,16 +6923,16 @@
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>123.6</v>
+        <v>133.6</v>
       </c>
       <c r="BR18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BT18" t="n">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -6956,13 +6956,13 @@
         <v>5</v>
       </c>
       <c r="CB18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CC18" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="CD18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -7004,19 +7004,19 @@
         <v>0</v>
       </c>
       <c r="CR18" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="CS18" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="CT18" t="n">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="CU18" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="CV18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CW18" t="n">
         <v>0</v>
@@ -7028,13 +7028,13 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="DA18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="DB18" t="n">
-        <v>48</v>
+        <v>51.851851851852</v>
       </c>
       <c r="DC18" t="n">
         <v>0</v>
@@ -7046,10 +7046,10 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="DG18" t="n">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="DH18" t="n">
         <v>0</v>
@@ -7441,16 +7441,16 @@
         <v>799046</v>
       </c>
       <c r="E20" t="n">
-        <v>7.3263157894737</v>
+        <v>7.345</v>
       </c>
       <c r="F20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" t="n">
-        <v>1710</v>
+        <v>1800</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
@@ -7462,7 +7462,7 @@
         <v>1.1962</v>
       </c>
       <c r="L20" t="n">
-        <v>855</v>
+        <v>900</v>
       </c>
       <c r="M20" t="n">
         <v>11</v>
@@ -7507,10 +7507,10 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.62593245</v>
+        <v>0.80775145</v>
       </c>
       <c r="AB20" t="n">
-        <v>1727</v>
+        <v>1805</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -7519,28 +7519,28 @@
         <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>1279</v>
+        <v>1341</v>
       </c>
       <c r="AF20" t="n">
-        <v>89.440559440559</v>
+        <v>89.639037433155</v>
       </c>
       <c r="AG20" t="n">
-        <v>1430</v>
+        <v>1496</v>
       </c>
       <c r="AH20" t="n">
-        <v>751</v>
+        <v>799</v>
       </c>
       <c r="AI20" t="n">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="AJ20" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AK20" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AL20" t="n">
-        <v>40.16393442623</v>
+        <v>42.1875</v>
       </c>
       <c r="AM20" t="n">
         <v>2</v>
@@ -7549,22 +7549,22 @@
         <v>28.571428571429</v>
       </c>
       <c r="AO20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP20" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AQ20" t="n">
         <v>2</v>
       </c>
       <c r="AR20" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AS20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT20" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AU20" t="n">
         <v>3</v>
@@ -7579,34 +7579,34 @@
         <v>0</v>
       </c>
       <c r="AY20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ20" t="n">
-        <v>60</v>
+        <v>58.823529411765</v>
       </c>
       <c r="BA20" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="BB20" t="n">
-        <v>64.16184971098301</v>
+        <v>63.04347826087</v>
       </c>
       <c r="BC20" t="n">
+        <v>59</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>63.440860215054</v>
+      </c>
+      <c r="BE20" t="n">
         <v>57</v>
       </c>
-      <c r="BD20" t="n">
-        <v>65.51724137930999</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>54</v>
-      </c>
       <c r="BF20" t="n">
-        <v>62.790697674419</v>
+        <v>62.637362637363</v>
       </c>
       <c r="BG20" t="n">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="BH20" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BI20" t="n">
         <v>12</v>
@@ -7624,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="BN20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BO20" t="n">
         <v>19</v>
@@ -7633,16 +7633,16 @@
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>139.2</v>
+        <v>146.9</v>
       </c>
       <c r="BR20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS20" t="n">
         <v>2</v>
       </c>
       <c r="BT20" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
@@ -7669,10 +7669,10 @@
         <v>3</v>
       </c>
       <c r="CC20" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="CD20" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="CE20" t="n">
         <v>0</v>
@@ -7717,16 +7717,16 @@
         <v>6</v>
       </c>
       <c r="CS20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CT20" t="n">
         <v>7</v>
       </c>
       <c r="CU20" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="CV20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="CW20" t="n">
         <v>0</v>
@@ -7738,13 +7738,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="DA20" t="n">
         <v>20</v>
       </c>
       <c r="DB20" t="n">
-        <v>51.282051282051</v>
+        <v>50</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7756,16 +7756,16 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>794</v>
+        <v>842</v>
       </c>
       <c r="DG20" t="n">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="DH20" t="n">
         <v>0</v>
       </c>
       <c r="DI20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="DJ20" t="n">
         <v>2164794</v>
@@ -7797,16 +7797,16 @@
         <v>1937833</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -7814,12 +7814,14 @@
       <c r="J21" t="n">
         <v>0</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0.0146</v>
+      </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -7860,9 +7862,11 @@
       <c r="Z21" t="n">
         <v>0</v>
       </c>
-      <c r="AA21" t="inlineStr"/>
+      <c r="AA21" t="n">
+        <v>0.00874112</v>
+      </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -7871,22 +7875,22 @@
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>93.023255813953</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK21" t="n">
         <v>0</v>
@@ -7904,19 +7908,19 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ21" t="n">
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS21" t="n">
         <v>0</v>
       </c>
       <c r="AT21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -7937,16 +7941,16 @@
         <v>0</v>
       </c>
       <c r="BA21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BB21" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="BC21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BD21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BE21" t="n">
         <v>0</v>
@@ -7955,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="BG21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH21" t="n">
         <v>0</v>
@@ -7985,22 +7989,22 @@
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BR21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS21" t="n">
         <v>0</v>
       </c>
       <c r="BT21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BU21" t="n">
         <v>0</v>
       </c>
       <c r="BV21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW21" t="n">
         <v>0</v>
@@ -8015,16 +8019,16 @@
         <v>0</v>
       </c>
       <c r="CA21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB21" t="n">
         <v>0</v>
       </c>
       <c r="CC21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CD21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE21" t="n">
         <v>0</v>
@@ -8075,10 +8079,10 @@
         <v>0</v>
       </c>
       <c r="CU21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8090,13 +8094,13 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DB21" t="n">
-        <v>0</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -8108,10 +8112,10 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="DG21" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="DH21" t="n">
         <v>0</v>
@@ -8149,16 +8153,16 @@
         <v>556866</v>
       </c>
       <c r="E22" t="n">
-        <v>7.1095238095238</v>
+        <v>7.1863636363636</v>
       </c>
       <c r="F22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22" t="n">
-        <v>1890</v>
+        <v>1980</v>
       </c>
       <c r="I22" t="n">
         <v>2</v>
@@ -8213,10 +8217,10 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.05723522</v>
+        <v>0.05836659</v>
       </c>
       <c r="AB22" t="n">
-        <v>816</v>
+        <v>855</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -8225,28 +8229,28 @@
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="AF22" t="n">
-        <v>72.291021671827</v>
+        <v>72.321428571429</v>
       </c>
       <c r="AG22" t="n">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="AH22" t="n">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="AI22" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AJ22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK22" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AL22" t="n">
-        <v>34.615384615385</v>
+        <v>35.164835164835</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
@@ -8264,13 +8268,13 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="AS22" t="n">
         <v>0</v>
       </c>
       <c r="AT22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -8291,13 +8295,13 @@
         <v>0</v>
       </c>
       <c r="BA22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB22" t="n">
-        <v>85.71428571428601</v>
+        <v>87.5</v>
       </c>
       <c r="BC22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD22" t="n">
         <v>100</v>
@@ -8309,13 +8313,13 @@
         <v>83.333333333333</v>
       </c>
       <c r="BG22" t="n">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="BH22" t="n">
         <v>0</v>
       </c>
       <c r="BI22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ22" t="n">
         <v>0</v>
@@ -8327,10 +8331,10 @@
         <v>0</v>
       </c>
       <c r="BM22" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="BN22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BO22" t="n">
         <v>20</v>
@@ -8339,16 +8343,16 @@
         <v>0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>149.3</v>
+        <v>158.1</v>
       </c>
       <c r="BR22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS22" t="n">
         <v>0</v>
       </c>
       <c r="BT22" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
@@ -8375,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="CC22" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="CD22" t="n">
         <v>21</v>
@@ -8390,10 +8394,10 @@
         <v>2</v>
       </c>
       <c r="CH22" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="CI22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CJ22" t="n">
         <v>18</v>
@@ -8405,10 +8409,10 @@
         <v>7</v>
       </c>
       <c r="CM22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CN22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CO22" t="n">
         <v>13</v>
@@ -8444,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="DA22" t="n">
         <v>0</v>
@@ -8462,13 +8466,13 @@
         <v>8</v>
       </c>
       <c r="DF22" t="n">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="DG22" t="n">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="DH22" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="DI22" t="n">
         <v>0</v>
@@ -8482,7 +8486,7 @@
         </is>
       </c>
       <c r="DL22" t="n">
-        <v>2.0586</v>
+        <v>3.7701</v>
       </c>
     </row>
   </sheetData>

--- a/sofaplayer/Bundesliga/Borussia Dortmund_stats.xlsx
+++ b/sofaplayer/Bundesliga/Borussia Dortmund_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL22"/>
+  <dimension ref="A1:DL21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6743,7 +6743,7 @@
         <v>1334</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -7790,281 +7790,279 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Luca Reggiani</t>
+          <t>Gregor Kobel</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1937833</v>
+        <v>556866</v>
       </c>
       <c r="E21" t="n">
+        <v>7.1863636363636</v>
+      </c>
+      <c r="F21" t="n">
+        <v>22</v>
+      </c>
+      <c r="G21" t="n">
+        <v>22</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1980</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.05836659</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>855</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>486</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>72.321428571429</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>672</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>426</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>96</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>35.164835164835</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>197</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
         <v>7</v>
       </c>
-      <c r="F21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>46</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.0146</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.00874112</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>93.023255813953</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>43</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>3</v>
-      </c>
       <c r="BB21" t="n">
-        <v>75</v>
+        <v>87.5</v>
       </c>
       <c r="BC21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD21" t="n">
         <v>100</v>
       </c>
       <c r="BE21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BF21" t="n">
-        <v>0</v>
+        <v>83.333333333333</v>
       </c>
       <c r="BG21" t="n">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="BH21" t="n">
         <v>0</v>
       </c>
       <c r="BI21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BJ21" t="n">
         <v>0</v>
       </c>
       <c r="BK21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL21" t="n">
         <v>0</v>
       </c>
       <c r="BM21" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="BN21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BO21" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BP21" t="n">
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
+        <v>158.1</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>22</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>186</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>44</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>21</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>42</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>12</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>18</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL21" t="n">
         <v>7</v>
       </c>
-      <c r="BR21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL21" t="n">
-        <v>0</v>
-      </c>
       <c r="CM21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CN21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CO21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CP21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ21" t="n">
         <v>0</v>
@@ -8094,13 +8092,13 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>1</v>
+        <v>273</v>
       </c>
       <c r="DA21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DB21" t="n">
-        <v>66.666666666667</v>
+        <v>0</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -8109,383 +8107,29 @@
         <v>0</v>
       </c>
       <c r="DE21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="DF21" t="n">
-        <v>26</v>
+        <v>467</v>
       </c>
       <c r="DG21" t="n">
-        <v>17</v>
+        <v>205</v>
       </c>
       <c r="DH21" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="DI21" t="n">
         <v>0</v>
       </c>
       <c r="DJ21" t="n">
-        <v>2660791</v>
+        <v>2164796</v>
       </c>
       <c r="DK21" t="inlineStr">
         <is>
           <t>overall</t>
         </is>
       </c>
-      <c r="DL21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Bundesliga</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Borussia Dortmund</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Gregor Kobel</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>556866</v>
-      </c>
-      <c r="E22" t="n">
-        <v>7.1863636363636</v>
-      </c>
-      <c r="F22" t="n">
-        <v>22</v>
-      </c>
-      <c r="G22" t="n">
-        <v>22</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1980</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0.05836659</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>855</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>486</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>72.321428571429</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>672</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>426</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>96</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>35.164835164835</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>197</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>100</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>83.333333333333</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>188</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>56</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>11</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>20</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>158.1</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>22</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>186</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>44</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>21</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>2</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>42</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>12</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>18</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>7</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>5</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>5</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>13</v>
-      </c>
-      <c r="CP22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ22" t="n">
-        <v>273</v>
-      </c>
-      <c r="DA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE22" t="n">
-        <v>8</v>
-      </c>
-      <c r="DF22" t="n">
-        <v>467</v>
-      </c>
-      <c r="DG22" t="n">
-        <v>205</v>
-      </c>
-      <c r="DH22" t="n">
-        <v>77</v>
-      </c>
-      <c r="DI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ22" t="n">
-        <v>2164796</v>
-      </c>
-      <c r="DK22" t="inlineStr">
-        <is>
-          <t>overall</t>
-        </is>
-      </c>
-      <c r="DL22" t="n">
+      <c r="DL21" t="n">
         <v>3.7701</v>
       </c>
     </row>
